--- a/ESP-PSYCHIC/ESP_raw.xlsx
+++ b/ESP-PSYCHIC/ESP_raw.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\SolarCruiserDose\ESP-PSYCHIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6241D3C1-CC48-4FE1-8F04-CA84A67CD95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117744A-8FA0-42AB-9AC0-3F93979CA31B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{69D6C672-7FDA-4129-82C5-B08F620386AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69D6C672-7FDA-4129-82C5-B08F620386AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2-year_worstCase" sheetId="1" r:id="rId1"/>
     <sheet name="2-year_totalFluence" sheetId="2" r:id="rId2"/>
     <sheet name="11-month_totalFluence" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>Energy (MeV)</t>
   </si>
@@ -48,11 +51,20 @@
   <si>
     <t># Energy (keV)  Bin Flux (#/cm2) Energy width (keV) Energy left edge (keV)</t>
   </si>
+  <si>
+    <t>Integral Fluence (#/cm^2)</t>
+  </si>
+  <si>
+    <t>Differential Fluence (#/cm^2/MeV)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,9 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,6 +113,1786 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11-month_totalFluence'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Integral Fluence (#/cm^2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11-month_totalFluence'!$N$2:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11-month_totalFluence'!$O$2:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1116389415000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>595869415000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>370589415000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230479415000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143339415000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94827415000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69331415000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48686415000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42628415000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37389415000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33251415000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18306415000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15541415000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13423415000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9610815000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5543415000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4389615000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3540515000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2904415000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1429115000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1103115000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>845735000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>661275000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>213005000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>156565000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>117735000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61304000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9035000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B4F-403B-BCDB-DDEFBCC44A38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11-month_totalFluence'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Differential Fluence (#/cm^2/MeV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11-month_totalFluence'!$N$2:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11-month_totalFluence'!$P$2:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>7649391471044.3623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1633116916740.2332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>507840278660.90149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157922916735.90936</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51010522094.312393</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21895461171.298897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13076612549.354801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7273779105.8529129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5932631087.9051456</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4625019883.8937473</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3962077754.0332041</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1521769249.1553974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200465603.2191401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>969114329.48280609</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>602161509.95404935</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>267913839.5868926</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>196040360.37418473</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145742280.51746628</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113332211.65907925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42187856.339363672</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30509324.998220101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21570560.03880316</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15690383.509444172</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3344155.6872717864</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2313241.7748489603</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1657080.4292822513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>858061.93511420838</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92018.802202201303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1B4F-403B-BCDB-DDEFBCC44A38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1178036080"/>
+        <c:axId val="1017590416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1178036080"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (MeV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1017590416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1017590416"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Int</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> &amp; DIff Fluence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178036080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62567C14-1A7F-411C-9B7F-BFFDEA5AFD42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="X1" t="str">
+            <v>Integral Fluence (#/cm^2)</v>
+          </cell>
+          <cell r="Y1" t="str">
+            <v>Differential Fluence (#/cm^2/MeV)</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="W2">
+            <v>9.9999999999999995E-7</v>
+          </cell>
+          <cell r="X2">
+            <v>877012381023.20044</v>
+          </cell>
+          <cell r="Y2">
+            <v>4009433642506278</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="W3">
+            <v>1.7999999999999999E-6</v>
+          </cell>
+          <cell r="X3">
+            <v>874658852989.29211</v>
+          </cell>
+          <cell r="Y3">
+            <v>3026369064782574</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="W4">
+            <v>3.1999999999999999E-6</v>
+          </cell>
+          <cell r="X4">
+            <v>870699981781.67761</v>
+          </cell>
+          <cell r="Y4">
+            <v>2905976433591667.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="W5">
+            <v>5.5999999999999997E-6</v>
+          </cell>
+          <cell r="X5">
+            <v>864158589009.51819</v>
+          </cell>
+          <cell r="Y5">
+            <v>2679133605227043</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="W6">
+            <v>9.9999999999999991E-6</v>
+          </cell>
+          <cell r="X6">
+            <v>853577714530.04175</v>
+          </cell>
+          <cell r="Y6">
+            <v>2358310776645012.5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="W7">
+            <v>1.7799999999999999E-5</v>
+          </cell>
+          <cell r="X7">
+            <v>837001807331.94531</v>
+          </cell>
+          <cell r="Y7">
+            <v>2044690264092355</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="W8">
+            <v>3.1600000000000002E-5</v>
+          </cell>
+          <cell r="X8">
+            <v>811943884220.70203</v>
+          </cell>
+          <cell r="Y8">
+            <v>1700188724406347.8</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="W9">
+            <v>5.6199999999999997E-5</v>
+          </cell>
+          <cell r="X9">
+            <v>775669159354.5509</v>
+          </cell>
+          <cell r="Y9">
+            <v>1341475325632176.3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="W10">
+            <v>1E-4</v>
+          </cell>
+          <cell r="X10">
+            <v>725929495464.00952</v>
+          </cell>
+          <cell r="Y10">
+            <v>1006756289323360.6</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="W11">
+            <v>1.7780000000000001E-4</v>
+          </cell>
+          <cell r="X11">
+            <v>661172394036.28796</v>
+          </cell>
+          <cell r="Y11">
+            <v>706048082610394.75</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="W12">
+            <v>3.1619999999999999E-4</v>
+          </cell>
+          <cell r="X12">
+            <v>583398189693.63477</v>
+          </cell>
+          <cell r="Y12">
+            <v>462990114592019</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="W13">
+            <v>5.6229999999999995E-4</v>
+          </cell>
+          <cell r="X13">
+            <v>495264043352.17133</v>
+          </cell>
+          <cell r="Y13">
+            <v>281895313619198.38</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="W14">
+            <v>1E-3</v>
+          </cell>
+          <cell r="X14">
+            <v>403577063875.66925</v>
+          </cell>
+          <cell r="Y14">
+            <v>158920682160587.63</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="W15">
+            <v>1.7783E-3</v>
+          </cell>
+          <cell r="X15">
+            <v>314726379759.07196</v>
+          </cell>
+          <cell r="Y15">
+            <v>83103805314701.688</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="W16">
+            <v>3.1622999999999998E-3</v>
+          </cell>
+          <cell r="X16">
+            <v>235041408016.06189</v>
+          </cell>
+          <cell r="Y16">
+            <v>40257448932840.477</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="W17">
+            <v>5.6233999999999998E-3</v>
+          </cell>
+          <cell r="X17">
+            <v>168701952334.91968</v>
+          </cell>
+          <cell r="Y17">
+            <v>18239349229575.801</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="W18">
+            <v>9.9999999999999985E-3</v>
+          </cell>
+          <cell r="X18">
+            <v>116723107897.08507</v>
+          </cell>
+          <cell r="Y18">
+            <v>7840420190492.7012</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="W19">
+            <v>1.7782800000000001E-2</v>
+          </cell>
+          <cell r="X19">
+            <v>77850933596.073761</v>
+          </cell>
+          <cell r="Y19">
+            <v>3174460614234.3716</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="W20">
+            <v>3.16228E-2</v>
+          </cell>
+          <cell r="X20">
+            <v>50652353881.618088</v>
+          </cell>
+          <cell r="Y20">
+            <v>1229745048125.5598</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="W21">
+            <v>5.6234099999999995E-2</v>
+          </cell>
+          <cell r="X21">
+            <v>32165679283.164783</v>
+          </cell>
+          <cell r="Y21">
+            <v>460286795730.08582</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="W22">
+            <v>0.1</v>
+          </cell>
+          <cell r="X22">
+            <v>20056190883.40274</v>
+          </cell>
+          <cell r="Y22">
+            <v>168231676188.17175</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="W23">
+            <v>0.17782790000000001</v>
+          </cell>
+          <cell r="X23">
+            <v>12245929134.443785</v>
+          </cell>
+          <cell r="Y23">
+            <v>60266429099.697327</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="W24">
+            <v>0.3162278</v>
+          </cell>
+          <cell r="X24">
+            <v>7322717504.4616318</v>
+          </cell>
+          <cell r="Y24">
+            <v>21142107645.806168</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="W25">
+            <v>0.56234130000000004</v>
+          </cell>
+          <cell r="X25">
+            <v>4280417534.2058301</v>
+          </cell>
+          <cell r="Y25">
+            <v>7292389520.257143</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="W26">
+            <v>1</v>
+          </cell>
+          <cell r="X26">
+            <v>2430257287.3289709</v>
+          </cell>
+          <cell r="Y26">
+            <v>2489636652.5157661</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="W27">
+            <v>1.7782793999999997</v>
+          </cell>
+          <cell r="X27">
+            <v>1316041046.9958358</v>
+          </cell>
+          <cell r="Y27">
+            <v>856687106.69341588</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="W28">
+            <v>3.1622775999999995</v>
+          </cell>
+          <cell r="X28">
+            <v>641002751.33848894</v>
+          </cell>
+          <cell r="Y28">
+            <v>300467120.59097147</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="W29">
+            <v>5.6234130999999987</v>
+          </cell>
+          <cell r="X29">
+            <v>238845925.04461631</v>
+          </cell>
+          <cell r="Y29">
+            <v>72840670.187597051</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,15 +2198,15 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +2220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>0.1</v>
       </c>
@@ -455,7 +2248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0.25</v>
       </c>
@@ -483,7 +2276,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.5</v>
       </c>
@@ -511,7 +2304,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -539,7 +2332,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -567,7 +2360,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3.5</v>
       </c>
@@ -595,7 +2388,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -623,7 +2416,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7.1</v>
       </c>
@@ -651,7 +2444,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -679,7 +2472,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -707,7 +2500,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -735,7 +2528,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>16</v>
       </c>
@@ -763,7 +2556,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>18</v>
       </c>
@@ -791,7 +2584,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>20</v>
       </c>
@@ -819,7 +2612,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>25</v>
       </c>
@@ -847,7 +2640,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>35</v>
       </c>
@@ -875,7 +2668,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>40</v>
       </c>
@@ -903,7 +2696,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>45</v>
       </c>
@@ -931,7 +2724,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>50</v>
       </c>
@@ -959,7 +2752,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>71</v>
       </c>
@@ -987,7 +2780,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>80</v>
       </c>
@@ -1015,7 +2808,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>90</v>
       </c>
@@ -1043,7 +2836,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>100</v>
       </c>
@@ -1071,7 +2864,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>160</v>
       </c>
@@ -1099,7 +2892,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>180</v>
       </c>
@@ -1127,7 +2920,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>200</v>
       </c>
@@ -1155,7 +2948,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>250</v>
       </c>
@@ -1183,7 +2976,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>400</v>
       </c>
@@ -1211,7 +3004,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>500</v>
       </c>
@@ -1240,14 +3033,14 @@
       <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +3054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>0.1</v>
       </c>
@@ -1288,7 +3081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0.25</v>
       </c>
@@ -1315,7 +3108,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.5</v>
       </c>
@@ -1342,7 +3135,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -1369,7 +3162,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1396,7 +3189,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3.5</v>
       </c>
@@ -1423,7 +3216,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1450,7 +3243,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7.1</v>
       </c>
@@ -1477,7 +3270,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1504,7 +3297,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1531,7 +3324,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1558,7 +3351,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>16</v>
       </c>
@@ -1585,7 +3378,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>18</v>
       </c>
@@ -1612,7 +3405,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>20</v>
       </c>
@@ -1639,7 +3432,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>25</v>
       </c>
@@ -1666,7 +3459,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>35</v>
       </c>
@@ -1693,7 +3486,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>40</v>
       </c>
@@ -1720,7 +3513,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>45</v>
       </c>
@@ -1747,7 +3540,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>50</v>
       </c>
@@ -1774,7 +3567,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>71</v>
       </c>
@@ -1801,7 +3594,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>80</v>
       </c>
@@ -1828,7 +3621,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>90</v>
       </c>
@@ -1855,7 +3648,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>100</v>
       </c>
@@ -1882,7 +3675,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>160</v>
       </c>
@@ -1909,7 +3702,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>180</v>
       </c>
@@ -1936,7 +3729,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>200</v>
       </c>
@@ -1963,7 +3756,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>250</v>
       </c>
@@ -1990,7 +3783,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>400</v>
       </c>
@@ -2017,7 +3810,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>500</v>
       </c>
@@ -2035,20 +3828,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69948A5-8FAE-41E9-9EA8-AE0792803DA7}">
-  <dimension ref="B1:I30"/>
+  <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="F2:I29"/>
+      <selection activeCell="N1" sqref="N1:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2061,8 +3857,17 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>0.1</v>
       </c>
@@ -2088,8 +3893,27 @@
         <f>B2*1000</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N2" s="2">
+        <f>I2/1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="2">
+        <f>SUM(G2:G29)</f>
+        <v>1116389415000</v>
+      </c>
+      <c r="P2" s="2">
+        <f>Q2+R2</f>
+        <v>7649391471044.3623</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>-O2/N2*LOG10(O3/O2)/LOG10(N3/N2)</f>
+        <v>7649391471044.3623</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0.25</v>
       </c>
@@ -2100,23 +3924,43 @@
         <v>1651000000000</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F29" si="0">SQRT(B3*B4)*1000</f>
+        <f t="shared" ref="F3:F24" si="0">SQRT(B3*B4)*1000</f>
         <v>353.55339059327378</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G29" si="1">C3-C4</f>
+        <f t="shared" ref="G3:G24" si="1">C3-C4</f>
         <v>225280000000</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H29" si="2">(B4-B3)*1000</f>
+        <f t="shared" ref="H3:H24" si="2">(B4-B3)*1000</f>
         <v>250</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I29" si="3">B3*1000</f>
+        <f t="shared" ref="I3:I25" si="3">B3*1000</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N29" si="4">I3/1000</f>
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O29" si="5">SUM(G3:G30)</f>
+        <v>595869415000</v>
+      </c>
+      <c r="P3" s="2">
+        <f>(Q3+R3)/2</f>
+        <v>1633116916740.2332</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>-O3/N3*LOG10(O4/O3)/LOG10(N4/N3)</f>
+        <v>1633098169628.9082</v>
+      </c>
+      <c r="R3" s="1">
+        <f>-O3/N3*LOG10(O3/O2)/LOG10(N3/N2)</f>
+        <v>1633135663851.5581</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.5</v>
       </c>
@@ -2142,8 +3986,28 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="5"/>
+        <v>370589415000</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P28" si="6">(Q4+R4)/2</f>
+        <v>507840278660.90149</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>-O4/N4*LOG10(O5/O4)/LOG10(N5/N4)</f>
+        <v>507843705752.2793</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R29" si="7">-O4/N4*LOG10(O4/O3)/LOG10(N4/N3)</f>
+        <v>507836851569.52368</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2169,8 +4033,28 @@
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N5" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="5"/>
+        <v>230479415000</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="6"/>
+        <v>157922916735.90936</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>-O5/N5*LOG10(O6/O5)/LOG10(N6/N5)</f>
+        <v>157925078755.68976</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="7"/>
+        <v>157920754716.129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -2196,8 +4080,28 @@
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N6" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="5"/>
+        <v>143339415000</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="6"/>
+        <v>51010522094.312393</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>-O6/N6*LOG10(O7/O6)/LOG10(N7/N6)</f>
+        <v>52912779134.521164</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="7"/>
+        <v>49108265054.103622</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3.5</v>
       </c>
@@ -2223,8 +4127,28 @@
         <f t="shared" si="3"/>
         <v>3500</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N7" s="2">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="5"/>
+        <v>94827415000</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="6"/>
+        <v>21895461171.298897</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>-O7/N7*LOG10(O8/O7)/LOG10(N8/N7)</f>
+        <v>23788121634.352448</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="7"/>
+        <v>20002800708.24535</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -2250,8 +4174,28 @@
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N8" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="5"/>
+        <v>69331415000</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="6"/>
+        <v>13076612549.354801</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>-O8/N8*LOG10(O9/O8)/LOG10(N9/N8)</f>
+        <v>13978635153.689615</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="7"/>
+        <v>12174589945.019987</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7.1</v>
       </c>
@@ -2277,8 +4221,28 @@
         <f t="shared" si="3"/>
         <v>7100</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N9" s="2">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="5"/>
+        <v>48686415000</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="6"/>
+        <v>7273779105.8529129</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>-O9/N9*LOG10(O10/O9)/LOG10(N10/N9)</f>
+        <v>7634755568.1764135</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="7"/>
+        <v>6912802643.5294132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -2304,8 +4268,28 @@
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N10" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="5"/>
+        <v>42628415000</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="6"/>
+        <v>5932631087.9051456</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>-O10/N10*LOG10(O11/O10)/LOG10(N11/N10)</f>
+        <v>5932528028.1921291</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="7"/>
+        <v>5932734147.6181612</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -2331,8 +4315,28 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N11" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="5"/>
+        <v>37389415000</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="6"/>
+        <v>4625019883.8937473</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>-O11/N11*LOG10(O12/O11)/LOG10(N12/N11)</f>
+        <v>4624773265.3548956</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="7"/>
+        <v>4625266502.4325981</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -2358,8 +4362,28 @@
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N12" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="5"/>
+        <v>33251415000</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="6"/>
+        <v>3962077754.0332041</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>-O12/N12*LOG10(O13/O12)/LOG10(N13/N12)</f>
+        <v>4222513489.4764242</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="7"/>
+        <v>3701642018.5899844</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>16</v>
       </c>
@@ -2385,8 +4409,28 @@
         <f t="shared" si="3"/>
         <v>16000</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N13" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="5"/>
+        <v>18306415000</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="6"/>
+        <v>1521769249.1553974</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>-O13/N13*LOG10(O14/O13)/LOG10(N14/N13)</f>
+        <v>1590610023.6606641</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="7"/>
+        <v>1452928474.6501307</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>18</v>
       </c>
@@ -2412,8 +4456,28 @@
         <f t="shared" si="3"/>
         <v>18000</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N14" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="5"/>
+        <v>15541415000</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="6"/>
+        <v>1200465603.2191401</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>-O14/N14*LOG10(O15/O14)/LOG10(N15/N14)</f>
+        <v>1200607325.7600129</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="7"/>
+        <v>1200323880.6782672</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>20</v>
       </c>
@@ -2439,8 +4503,28 @@
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N15" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="5"/>
+        <v>13423415000</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="6"/>
+        <v>969114329.48280609</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>-O15/N15*LOG10(O16/O15)/LOG10(N16/N15)</f>
+        <v>1004940065.4144356</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="7"/>
+        <v>933288593.55117655</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>25</v>
       </c>
@@ -2466,8 +4550,28 @@
         <f t="shared" si="3"/>
         <v>25000</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N16" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="5"/>
+        <v>9610815000</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="6"/>
+        <v>602161509.95404935</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>-O16/N16*LOG10(O17/O16)/LOG10(N17/N16)</f>
+        <v>628714320.94223702</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="7"/>
+        <v>575608698.96586156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>35</v>
       </c>
@@ -2493,8 +4597,28 @@
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N17" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="5"/>
+        <v>5543415000</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="6"/>
+        <v>267913839.5868926</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>-O17/N17*LOG10(O18/O17)/LOG10(N18/N17)</f>
+        <v>276802196.09441715</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="7"/>
+        <v>259025483.07936803</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>40</v>
       </c>
@@ -2520,8 +4644,28 @@
         <f t="shared" si="3"/>
         <v>40000</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N18" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="5"/>
+        <v>4389615000</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="6"/>
+        <v>196040360.37418473</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>-O18/N18*LOG10(O19/O18)/LOG10(N19/N18)</f>
+        <v>200290427.57929039</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="7"/>
+        <v>191790293.1690791</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>45</v>
       </c>
@@ -2547,8 +4691,28 @@
         <f t="shared" si="3"/>
         <v>45000</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N19" s="2">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="5"/>
+        <v>3540515000</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="6"/>
+        <v>145742280.51746628</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>-O19/N19*LOG10(O20/O19)/LOG10(N20/N19)</f>
+        <v>147886796.624383</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="7"/>
+        <v>143597764.41054955</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>50</v>
       </c>
@@ -2574,8 +4738,28 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N20" s="2">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="5"/>
+        <v>2904415000</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="6"/>
+        <v>113332211.65907925</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>-O20/N20*LOG10(O21/O20)/LOG10(N21/N20)</f>
+        <v>117479130.39438142</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="7"/>
+        <v>109185292.92377707</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>71</v>
       </c>
@@ -2601,8 +4785,28 @@
         <f t="shared" si="3"/>
         <v>71000</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N21" s="2">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="5"/>
+        <v>1429115000</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="6"/>
+        <v>42187856.339363672</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>-O21/N21*LOG10(O22/O21)/LOG10(N22/N21)</f>
+        <v>43667607.74640239</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="7"/>
+        <v>40708104.932324953</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>80</v>
       </c>
@@ -2628,8 +4832,28 @@
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N22" s="2">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="5"/>
+        <v>1103115000</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="6"/>
+        <v>30509324.998220101</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>-O22/N22*LOG10(O23/O22)/LOG10(N23/N22)</f>
+        <v>31104175.728613075</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="7"/>
+        <v>29914474.267827123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>90</v>
       </c>
@@ -2655,8 +4879,28 @@
         <f t="shared" si="3"/>
         <v>90000</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N23" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="5"/>
+        <v>845735000</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="6"/>
+        <v>21570560.03880316</v>
+      </c>
+      <c r="Q23" s="1">
+        <f>-O23/N23*LOG10(O24/O23)/LOG10(N24/N23)</f>
+        <v>21943861.96170437</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="7"/>
+        <v>21197258.115901951</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>100</v>
       </c>
@@ -2682,8 +4926,28 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N24" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="5"/>
+        <v>661275000</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="6"/>
+        <v>15690383.509444172</v>
+      </c>
+      <c r="Q24" s="1">
+        <f>-O24/N24*LOG10(O25/O24)/LOG10(N25/N24)</f>
+        <v>15938773.265699167</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="7"/>
+        <v>15441993.753189176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>160</v>
       </c>
@@ -2709,8 +4973,28 @@
         <f t="shared" si="3"/>
         <v>160000</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N25" s="2">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="5"/>
+        <v>213005000</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="6"/>
+        <v>3344155.6872717864</v>
+      </c>
+      <c r="Q25" s="1">
+        <f>-O25/N25*LOG10(O26/O25)/LOG10(N26/N25)</f>
+        <v>3479511.7077443483</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="7"/>
+        <v>3208799.6667992244</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>180</v>
       </c>
@@ -2721,23 +5005,43 @@
         <v>2381600</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F29" si="4">SQRT(B26*B27)*1000</f>
+        <f t="shared" ref="F26:F29" si="8">SQRT(B26*B27)*1000</f>
         <v>189736.65961010274</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G29" si="5">C26-C27</f>
+        <f t="shared" ref="G26:G29" si="9">C26-C27</f>
         <v>38830000</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:H29" si="6">(B27-B26)*1000</f>
+        <f t="shared" ref="H26:H29" si="10">(B27-B26)*1000</f>
         <v>20000</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ref="I26:I29" si="7">B26*1000</f>
+        <f t="shared" ref="I26:I29" si="11">B26*1000</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N26" s="2">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="5"/>
+        <v>156565000</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="6"/>
+        <v>2313241.7748489603</v>
+      </c>
+      <c r="Q26" s="1">
+        <f>-O26/N26*LOG10(O27/O26)/LOG10(N27/N26)</f>
+        <v>2353110.726324473</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="7"/>
+        <v>2273372.8233734476</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>200</v>
       </c>
@@ -2748,23 +5052,43 @@
         <v>1669200</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="8"/>
+        <v>223606.79774997896</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="9"/>
+        <v>56431000</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="10"/>
+        <v>50000</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="11"/>
+        <v>200000</v>
+      </c>
+      <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>223606.79774997896</v>
-      </c>
-      <c r="G27" s="1">
+        <v>200</v>
+      </c>
+      <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>56431000</v>
-      </c>
-      <c r="H27" s="1">
+        <v>117735000</v>
+      </c>
+      <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>50000</v>
-      </c>
-      <c r="I27" s="1">
+        <v>1657080.4292822513</v>
+      </c>
+      <c r="Q27" s="1">
+        <f>-O27/N27*LOG10(O28/O27)/LOG10(N28/N27)</f>
+        <v>1721600.9490864538</v>
+      </c>
+      <c r="R27" s="1">
         <f t="shared" si="7"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1592559.9094780486</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>250</v>
       </c>
@@ -2775,23 +5099,43 @@
         <v>796220</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="8"/>
+        <v>316227.76601683797</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="9"/>
+        <v>52269000</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="10"/>
+        <v>150000</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="11"/>
+        <v>250000</v>
+      </c>
+      <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>316227.76601683797</v>
-      </c>
-      <c r="G28" s="1">
+        <v>250</v>
+      </c>
+      <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>52269000</v>
-      </c>
-      <c r="H28" s="1">
+        <v>61304000</v>
+      </c>
+      <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>150000</v>
-      </c>
-      <c r="I28" s="1">
+        <v>858061.93511420838</v>
+      </c>
+      <c r="Q28" s="1">
+        <f>-O28/N28*LOG10(O29/O28)/LOG10(N29/N28)</f>
+        <v>998980.96738527936</v>
+      </c>
+      <c r="R28" s="1">
         <f t="shared" si="7"/>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+        <v>717142.90284313739</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>400</v>
       </c>
@@ -2802,23 +5146,42 @@
         <v>142170</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="8"/>
+        <v>447213.59549995791</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="9"/>
+        <v>9035000</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="11"/>
+        <v>400000</v>
+      </c>
+      <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>447213.59549995791</v>
-      </c>
-      <c r="G29" s="1">
+        <v>400</v>
+      </c>
+      <c r="O29" s="2">
         <f t="shared" si="5"/>
         <v>9035000</v>
       </c>
-      <c r="H29" s="1">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="P29" s="2">
+        <f t="shared" ref="P29" si="12">Q29+R29</f>
+        <v>92018.802202201303</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
         <f t="shared" si="7"/>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+        <v>92018.802202201303</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>500</v>
       </c>
@@ -2835,5 +5198,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>